--- a/res_mapping_schemes/mapping_Kosovo_RES.xlsx
+++ b/res_mapping_schemes/mapping_Kosovo_RES.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EFA6AA-7D7A-1146-8139-64E21AD5FE20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE9E63-58B9-A644-AA75-94123914C529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping_rural" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -781,7 +781,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
